--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>Prefabs/Effect/InGameMagnetEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameOverLineEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束线特效</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -775,6 +783,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>60010013</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
